--- a/decode2020_Session一覧.xlsx
+++ b/decode2020_Session一覧.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\type6\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\decode2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C2F3B5AD-DD2D-4D6D-B0C3-889F328942FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954B885-01FC-47EC-835F-E3ACE56031DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SessionData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">SessionData!$B$6:$W$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SessionData!$A$6:$W$114</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="696">
   <si>
     <t>セッションID</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>A14</t>
-  </si>
-  <si>
-    <t>「あつまれ フロントエンドエンジニア」 Azure Static Web Apps がやってきた</t>
   </si>
   <si>
     <t>https://www.microsoft.com/ja-jp/events/decode/2020session/detail.aspx?sid=A14</t>
@@ -1842,9 +1839,6 @@
     <t>https://decode20-vevent.cloud-config.jp/session/15</t>
   </si>
   <si>
-    <t>https://decode20-vevent.cloud-config.jp/session/16</t>
-  </si>
-  <si>
     <t>https://decode20-vevent.cloud-config.jp/session/17</t>
   </si>
   <si>
@@ -1908,12 +1902,6 @@
     <t>https://decode20-vevent.cloud-config.jp/session/38</t>
   </si>
   <si>
-    <t>https://decode20-vevent.cloud-config.jp/session/39</t>
-  </si>
-  <si>
-    <t>https://decode20-vevent.cloud-config.jp/session/40</t>
-  </si>
-  <si>
     <t>https://decode20-vevent.cloud-config.jp/session/41</t>
   </si>
   <si>
@@ -2068,9 +2056,6 @@
   </si>
   <si>
     <t>https://decode20-vevent.cloud-config.jp/session/64</t>
-  </si>
-  <si>
-    <t>https://decode20-vevent.cloud-config.jp/session/109</t>
   </si>
   <si>
     <t>https://decode20-vevent.cloud-config.jp/session/110</t>
@@ -2108,9 +2093,6 @@
       <t>ジョウキョウ</t>
     </rPh>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/ja-jp/events/decode/2020session/search.aspx</t>
   </si>
   <si>
     <t>以下で公開されているセッションリストCSVより作成。視聴URL、公開日時は視聴サイトより取得</t>
@@ -2161,7 +2143,21 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>デフォルトブラウザがdecode2020にログイン済み（2D Viewまで接続済み）であれば、個別視聴URLクリックで行けます。</t>
+    <t>個別視聴URL</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/ja-jp/events/decode/2020session/search.aspx</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>デフォルトブラウザがdecode2020にログイン済み（2D Viewまで接続済み）であれば、個別視聴URLクリックで直接動画が開けます。</t>
     <rPh sb="25" eb="26">
       <t>ズ</t>
     </rPh>
@@ -2177,28 +2173,44 @@
     <rPh sb="49" eb="51">
       <t>シチョウ</t>
     </rPh>
-    <rPh sb="59" eb="60">
-      <t>イ</t>
+    <rPh sb="59" eb="61">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>個別視聴URL</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シチョウ</t>
-    </rPh>
+    <t>https://decode20-vevent.cloud-config.jp/session/109</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>「あつまれ フロントエンドエンジニア」 Azure Static Web Apps がやってきた</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://decode20-vevent.cloud-config.jp/session/39</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://decode20-vevent.cloud-config.jp/session/40</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://decode20-vevent.cloud-config.jp/session/16</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="m/d\ h:mm"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2835,7 +2847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2846,12 +2858,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2865,6 +2871,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3221,19 +3230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="47.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
     <col min="5" max="5" width="13.296875" customWidth="1"/>
     <col min="6" max="6" width="2.3984375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.8984375" bestFit="1" customWidth="1"/>
@@ -3243,116 +3252,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>692</v>
+      <c r="A1" s="6" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>694</v>
-      </c>
-    </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="B5" s="9"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>583</v>
+      <c r="D7" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -3388,14 +3397,14 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4">
-        <v>44006.416666666664</v>
+      <c r="D8" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
@@ -3434,14 +3443,14 @@
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>583</v>
+      <c r="D9" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>35</v>
@@ -3480,14 +3489,14 @@
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4">
-        <v>44006.416666666664</v>
+      <c r="D10" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>41</v>
@@ -3526,14 +3535,14 @@
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>583</v>
+      <c r="D11" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>46</v>
@@ -3572,14 +3581,14 @@
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4">
-        <v>44006.416666666664</v>
+      <c r="D12" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>50</v>
@@ -3618,14 +3627,14 @@
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="4">
-        <v>44006.416666666664</v>
+      <c r="D13" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>55</v>
@@ -3664,14 +3673,14 @@
       <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <v>44006.416666666664</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>58</v>
@@ -3710,14 +3719,14 @@
       <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>583</v>
+      <c r="D15" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>64</v>
@@ -3756,14 +3765,14 @@
       <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="4">
-        <v>44006.416666666664</v>
+      <c r="D16" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>70</v>
@@ -3802,14 +3811,14 @@
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4">
-        <v>44006.416666666664</v>
+      <c r="D17" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
@@ -3848,14 +3857,14 @@
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>44006.416666666664</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>80</v>
@@ -3894,14 +3903,14 @@
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <v>44006.416666666664</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>86</v>
@@ -3940,32 +3949,32 @@
       <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3984,31 +3993,31 @@
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D21" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>26</v>
@@ -4030,19 +4039,19 @@
     <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D22" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>22</v>
@@ -4054,7 +4063,7 @@
         <v>37</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>32</v>
@@ -4076,31 +4085,31 @@
     <row r="23" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>26</v>
@@ -4122,31 +4131,31 @@
     <row r="24" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D24" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>26</v>
@@ -4168,31 +4177,31 @@
     <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>26</v>
@@ -4214,31 +4223,31 @@
     <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D26" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>26</v>
@@ -4260,40 +4269,40 @@
     <row r="27" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D27" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4310,34 +4319,34 @@
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D28" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -4356,31 +4365,31 @@
     <row r="29" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D29" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>26</v>
@@ -4402,31 +4411,31 @@
     <row r="30" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>26</v>
@@ -4448,31 +4457,31 @@
     <row r="31" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>26</v>
@@ -4494,31 +4503,31 @@
     <row r="32" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>26</v>
@@ -4540,31 +4549,31 @@
     <row r="33" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>26</v>
@@ -4586,31 +4595,31 @@
     <row r="34" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>26</v>
@@ -4632,31 +4641,31 @@
     <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>26</v>
@@ -4678,43 +4687,43 @@
     <row r="36" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>26</v>
@@ -4732,43 +4741,43 @@
     <row r="37" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>26</v>
@@ -4786,31 +4795,31 @@
     <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>26</v>
@@ -4832,31 +4841,31 @@
     <row r="39" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>26</v>
@@ -4878,34 +4887,34 @@
     <row r="40" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4924,52 +4933,52 @@
     <row r="41" spans="1:24" ht="54" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -4982,22 +4991,22 @@
     <row r="42" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>51</v>
@@ -5006,16 +5015,16 @@
         <v>65</v>
       </c>
       <c r="J42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5032,34 +5041,34 @@
     <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5078,34 +5087,34 @@
     <row r="44" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="5">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5124,31 +5133,31 @@
     <row r="45" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D45" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>26</v>
@@ -5170,40 +5179,40 @@
     <row r="46" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5220,34 +5229,34 @@
     <row r="47" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5266,46 +5275,46 @@
     <row r="48" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L48" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="O48" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -5320,46 +5329,46 @@
     <row r="49" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="O49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -5374,31 +5383,31 @@
     <row r="50" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D50" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>26</v>
@@ -5420,31 +5429,31 @@
     <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D51" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>26</v>
@@ -5466,31 +5475,31 @@
     <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>26</v>
@@ -5512,31 +5521,31 @@
     <row r="53" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D53" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>26</v>
@@ -5558,31 +5567,31 @@
     <row r="54" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>32</v>
@@ -5604,31 +5613,31 @@
     <row r="55" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D55" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>32</v>
@@ -5650,49 +5659,49 @@
     <row r="56" spans="1:24" ht="54" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N56" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>26</v>
@@ -5708,31 +5717,31 @@
     <row r="57" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D57" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>32</v>
@@ -5754,31 +5763,31 @@
     <row r="58" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D58" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>26</v>
@@ -5800,31 +5809,31 @@
     <row r="59" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D59" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>32</v>
@@ -5846,31 +5855,31 @@
     <row r="60" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D60" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="I60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>26</v>
@@ -5892,34 +5901,34 @@
     <row r="61" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -5938,31 +5947,31 @@
     <row r="62" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>26</v>
@@ -5984,31 +5993,31 @@
     <row r="63" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D63" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>26</v>
@@ -6030,34 +6039,34 @@
     <row r="64" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="D64" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J64" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -6076,34 +6085,34 @@
     <row r="65" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="D65" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J65" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -6122,22 +6131,22 @@
     <row r="66" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>59</v>
@@ -6146,40 +6155,40 @@
         <v>65</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N66" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="P66" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="Q66" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R66" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
@@ -6188,22 +6197,22 @@
     <row r="67" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D67" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>59</v>
@@ -6212,7 +6221,7 @@
         <v>65</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>26</v>
@@ -6234,22 +6243,22 @@
     <row r="68" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>59</v>
@@ -6258,7 +6267,7 @@
         <v>65</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>26</v>
@@ -6280,22 +6289,22 @@
     <row r="69" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="D69" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>59</v>
@@ -6304,40 +6313,40 @@
         <v>65</v>
       </c>
       <c r="J69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="L69" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N69" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="P69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="S69" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="S69" s="2" t="s">
+      <c r="T69" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="U69" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="U69" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
@@ -6346,22 +6355,22 @@
     <row r="70" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="D70" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>59</v>
@@ -6370,22 +6379,22 @@
         <v>65</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N70" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -6400,22 +6409,22 @@
     <row r="71" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="D71" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="G71" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>59</v>
@@ -6424,7 +6433,7 @@
         <v>65</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>26</v>
@@ -6446,22 +6455,22 @@
     <row r="72" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="D72" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>59</v>
@@ -6470,10 +6479,10 @@
         <v>65</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -6492,31 +6501,31 @@
     <row r="73" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D73" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>26</v>
@@ -6538,31 +6547,31 @@
     <row r="74" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="D74" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D74" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>26</v>
@@ -6584,31 +6593,31 @@
     <row r="75" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="D75" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>26</v>
@@ -6630,37 +6639,37 @@
     <row r="76" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="D76" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D76" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>26</v>
@@ -6680,37 +6689,37 @@
     <row r="77" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>26</v>
@@ -6730,31 +6739,31 @@
     <row r="78" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="D78" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D78" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>26</v>
@@ -6776,31 +6785,31 @@
     <row r="79" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="D79" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D79" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="G79" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>26</v>
@@ -6822,31 +6831,31 @@
     <row r="80" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D80" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>26</v>
@@ -6868,31 +6877,31 @@
     <row r="81" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="D81" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D81" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>26</v>
@@ -6914,31 +6923,31 @@
     <row r="82" spans="1:24" ht="54" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="D82" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D82" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>32</v>
@@ -6960,31 +6969,31 @@
     <row r="83" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="D83" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D83" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>26</v>
@@ -7006,31 +7015,31 @@
     <row r="84" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="D84" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D84" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="I84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>26</v>
@@ -7052,22 +7061,22 @@
     <row r="85" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="D85" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>23</v>
@@ -7076,22 +7085,22 @@
         <v>37</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L85" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="M85" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="M85" s="2" t="s">
+      <c r="N85" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="O85" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -7106,31 +7115,31 @@
     <row r="86" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="D86" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D86" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>32</v>
@@ -7152,31 +7161,31 @@
     <row r="87" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="D87" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>26</v>
@@ -7198,34 +7207,34 @@
     <row r="88" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D88" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J88" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -7244,34 +7253,34 @@
     <row r="89" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="D89" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -7290,34 +7299,34 @@
     <row r="90" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="D90" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -7336,31 +7345,31 @@
     <row r="91" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="D91" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D91" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="H91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>26</v>
@@ -7382,31 +7391,31 @@
     <row r="92" spans="1:24" ht="54" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D92" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>32</v>
@@ -7428,37 +7437,37 @@
     <row r="93" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="D93" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D93" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>26</v>
@@ -7478,31 +7487,31 @@
     <row r="94" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D94" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>32</v>
@@ -7524,37 +7533,37 @@
     <row r="95" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D95" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D95" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>26</v>
@@ -7574,31 +7583,31 @@
     <row r="96" spans="1:24" ht="54" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>26</v>
@@ -7620,31 +7629,31 @@
     <row r="97" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D97" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>26</v>
@@ -7666,31 +7675,31 @@
     <row r="98" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="G98" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>26</v>
@@ -7712,31 +7721,31 @@
     <row r="99" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D99" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>83</v>
@@ -7758,34 +7767,34 @@
     <row r="100" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J100" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -7804,31 +7813,31 @@
     <row r="101" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D101" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>26</v>
@@ -7850,40 +7859,40 @@
     <row r="102" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L102" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M102" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -7900,31 +7909,31 @@
     <row r="103" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D103" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>26</v>
@@ -7946,37 +7955,37 @@
     <row r="104" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D104" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -7994,31 +8003,31 @@
     <row r="105" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D105" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>26</v>
@@ -8040,31 +8049,31 @@
     <row r="106" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D106" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>32</v>
@@ -8086,31 +8095,31 @@
     <row r="107" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D107" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>26</v>
@@ -8132,44 +8141,44 @@
     <row r="108" spans="1:24" ht="54" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D108" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H108" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="O108" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -8184,40 +8193,40 @@
     <row r="109" spans="1:24" ht="54" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D109" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="G109" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L109" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="M109" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -8234,31 +8243,31 @@
     <row r="110" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="D110" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>26</v>
@@ -8280,22 +8289,22 @@
     <row r="111" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="D111" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D111" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>59</v>
@@ -8304,10 +8313,10 @@
         <v>24</v>
       </c>
       <c r="J111" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -8326,22 +8335,22 @@
     <row r="112" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="D112" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D112" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>59</v>
@@ -8350,10 +8359,10 @@
         <v>24</v>
       </c>
       <c r="J112" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -8372,34 +8381,34 @@
     <row r="113" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="D113" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J113" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -8418,22 +8427,22 @@
     <row r="114" spans="1:24" ht="36" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="D114" s="8">
+        <v>44006.416666666664</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D114" s="4">
-        <v>44006.416666666664</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="G114" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>59</v>
@@ -8442,7 +8451,7 @@
         <v>24</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>26</v>
@@ -8462,126 +8471,126 @@
       <c r="X114" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:W114"/>
+  <autoFilter ref="A6:W114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A114">
-      <formula1>",済"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A114" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>",済,興味なし"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="E16" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E11" r:id="rId5"/>
-    <hyperlink ref="E21" r:id="rId6"/>
-    <hyperlink ref="E109" r:id="rId7"/>
-    <hyperlink ref="E41" r:id="rId8"/>
-    <hyperlink ref="E44" r:id="rId9"/>
-    <hyperlink ref="E43" r:id="rId10"/>
-    <hyperlink ref="E45" r:id="rId11"/>
-    <hyperlink ref="E108" r:id="rId12"/>
-    <hyperlink ref="E51" r:id="rId13"/>
-    <hyperlink ref="E50" r:id="rId14"/>
-    <hyperlink ref="E46" r:id="rId15"/>
-    <hyperlink ref="E53" r:id="rId16"/>
-    <hyperlink ref="E36" r:id="rId17"/>
-    <hyperlink ref="E106" r:id="rId18"/>
-    <hyperlink ref="E35" r:id="rId19"/>
-    <hyperlink ref="E75" r:id="rId20"/>
-    <hyperlink ref="E83" r:id="rId21"/>
-    <hyperlink ref="E95" r:id="rId22"/>
-    <hyperlink ref="E93" r:id="rId23"/>
-    <hyperlink ref="E98" r:id="rId24"/>
-    <hyperlink ref="E33" r:id="rId25"/>
-    <hyperlink ref="E31" r:id="rId26"/>
-    <hyperlink ref="E30" r:id="rId27"/>
-    <hyperlink ref="E52" r:id="rId28"/>
-    <hyperlink ref="E47" r:id="rId29"/>
-    <hyperlink ref="E49" r:id="rId30"/>
-    <hyperlink ref="E39" r:id="rId31"/>
-    <hyperlink ref="E37" r:id="rId32"/>
-    <hyperlink ref="E80" r:id="rId33"/>
-    <hyperlink ref="E38" r:id="rId34"/>
-    <hyperlink ref="E34" r:id="rId35"/>
-    <hyperlink ref="E81" r:id="rId36"/>
-    <hyperlink ref="E73" r:id="rId37"/>
-    <hyperlink ref="E77" r:id="rId38"/>
-    <hyperlink ref="E76" r:id="rId39"/>
-    <hyperlink ref="E84" r:id="rId40"/>
-    <hyperlink ref="E48" r:id="rId41"/>
-    <hyperlink ref="E74" r:id="rId42"/>
-    <hyperlink ref="E78" r:id="rId43"/>
-    <hyperlink ref="E104" r:id="rId44"/>
-    <hyperlink ref="E82" r:id="rId45"/>
-    <hyperlink ref="E91" r:id="rId46"/>
-    <hyperlink ref="E97" r:id="rId47"/>
-    <hyperlink ref="E92" r:id="rId48"/>
-    <hyperlink ref="E99" r:id="rId49"/>
-    <hyperlink ref="E94" r:id="rId50"/>
-    <hyperlink ref="E22" r:id="rId51"/>
-    <hyperlink ref="E101" r:id="rId52"/>
-    <hyperlink ref="E102" r:id="rId53"/>
-    <hyperlink ref="E103" r:id="rId54"/>
-    <hyperlink ref="E107" r:id="rId55"/>
-    <hyperlink ref="E105" r:id="rId56"/>
-    <hyperlink ref="E87" r:id="rId57"/>
-    <hyperlink ref="E28" r:id="rId58"/>
-    <hyperlink ref="E114" r:id="rId59"/>
-    <hyperlink ref="E100" r:id="rId60"/>
-    <hyperlink ref="E90" r:id="rId61"/>
-    <hyperlink ref="E27" r:id="rId62"/>
-    <hyperlink ref="E89" r:id="rId63"/>
-    <hyperlink ref="E64" r:id="rId64"/>
-    <hyperlink ref="E88" r:id="rId65"/>
-    <hyperlink ref="E112" r:id="rId66"/>
-    <hyperlink ref="E111" r:id="rId67"/>
-    <hyperlink ref="E19" r:id="rId68"/>
-    <hyperlink ref="E18" r:id="rId69"/>
-    <hyperlink ref="E59" r:id="rId70"/>
-    <hyperlink ref="E85" r:id="rId71"/>
-    <hyperlink ref="E58" r:id="rId72"/>
-    <hyperlink ref="E113" r:id="rId73"/>
-    <hyperlink ref="E26" r:id="rId74"/>
-    <hyperlink ref="E25" r:id="rId75"/>
-    <hyperlink ref="E24" r:id="rId76"/>
-    <hyperlink ref="E57" r:id="rId77"/>
-    <hyperlink ref="E15" r:id="rId78"/>
-    <hyperlink ref="E14" r:id="rId79"/>
-    <hyperlink ref="E29" r:id="rId80"/>
-    <hyperlink ref="E86" r:id="rId81"/>
-    <hyperlink ref="E96" r:id="rId82"/>
-    <hyperlink ref="E56" r:id="rId83"/>
-    <hyperlink ref="E13" r:id="rId84"/>
-    <hyperlink ref="E23" r:id="rId85"/>
-    <hyperlink ref="E63" r:id="rId86"/>
-    <hyperlink ref="E17" r:id="rId87"/>
-    <hyperlink ref="E12" r:id="rId88"/>
-    <hyperlink ref="E110" r:id="rId89"/>
-    <hyperlink ref="E79" r:id="rId90"/>
-    <hyperlink ref="E55" r:id="rId91"/>
-    <hyperlink ref="E54" r:id="rId92"/>
-    <hyperlink ref="E62" r:id="rId93"/>
-    <hyperlink ref="E61" r:id="rId94"/>
-    <hyperlink ref="E60" r:id="rId95"/>
-    <hyperlink ref="E8" r:id="rId96"/>
-    <hyperlink ref="E7" r:id="rId97"/>
-    <hyperlink ref="E42" r:id="rId98"/>
-    <hyperlink ref="E32" r:id="rId99"/>
-    <hyperlink ref="E20" r:id="rId100"/>
-    <hyperlink ref="E65" r:id="rId101"/>
-    <hyperlink ref="E67" r:id="rId102"/>
-    <hyperlink ref="E66" r:id="rId103"/>
-    <hyperlink ref="E68" r:id="rId104"/>
-    <hyperlink ref="E69" r:id="rId105"/>
-    <hyperlink ref="E70" r:id="rId106"/>
-    <hyperlink ref="E71" r:id="rId107"/>
-    <hyperlink ref="E40" r:id="rId108"/>
-    <hyperlink ref="E72" r:id="rId109"/>
-    <hyperlink ref="A3" r:id="rId110"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E109" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E45" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E108" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E51" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E50" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E46" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E106" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E75" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E83" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E95" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E93" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E98" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E52" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E47" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E49" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E80" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E81" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E73" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E77" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E76" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E84" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E74" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E78" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E104" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E82" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E91" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E97" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E92" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E94" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E22" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E102" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E103" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E107" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E105" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E87" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E28" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E114" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E100" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E90" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E27" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E89" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E112" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E111" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E19" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E18" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E59" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E85" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E58" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E113" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E26" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E25" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E24" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E57" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E15" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E14" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E29" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E86" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E56" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E23" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E63" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E17" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E12" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E110" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E79" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E55" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E54" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E62" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E61" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E60" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E8" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E7" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E42" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E32" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E20" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E65" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E67" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E66" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E68" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E69" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E70" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E71" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E40" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E72" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A3" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId111"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId111"/>
 </worksheet>
 </file>